--- a/ACC-MB/Tables.xlsx
+++ b/ACC-MB/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WFR2020\ACC-MB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D49C1E8-DBB1-43B0-B7B1-2854F3D05C00}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BD8887-73EA-4CD9-9580-5F1BC439BA4E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9060" yWindow="5235" windowWidth="21600" windowHeight="11385" xr2:uid="{DE5795C0-FBFE-48CB-8C97-F84C007EBB28}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{DE5795C0-FBFE-48CB-8C97-F84C007EBB28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="307">
   <si>
     <t>Maximum Tractive System Voltage:</t>
   </si>
@@ -141,21 +141,12 @@
     <t>30kA@500VAC, 20kA@500VDC</t>
   </si>
   <si>
-    <t>Conductor Location</t>
-  </si>
-  <si>
     <t>Size</t>
   </si>
   <si>
     <t>Ampacity</t>
   </si>
   <si>
-    <t>Rating of fuse providing protection</t>
-  </si>
-  <si>
-    <t>Temperature Rating</t>
-  </si>
-  <si>
     <t>Cell Busbars</t>
   </si>
   <si>
@@ -171,12 +162,6 @@
     <t>20A</t>
   </si>
   <si>
-    <t>Team Manufactured</t>
-  </si>
-  <si>
-    <t>Tractive System DC/Phase Wire</t>
-  </si>
-  <si>
     <t>35mm2</t>
   </si>
   <si>
@@ -213,42 +198,21 @@
     <t>-68C to 150C</t>
   </si>
   <si>
-    <t>Connector Location</t>
-  </si>
-  <si>
-    <t>Includes Interlock</t>
-  </si>
-  <si>
-    <t>Accepted wire gauge</t>
-  </si>
-  <si>
-    <t>Wire gauge connected</t>
-  </si>
-  <si>
     <t>Accumulator Main Receptacle</t>
   </si>
   <si>
     <t>200A</t>
   </si>
   <si>
-    <t>850V</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
     <t>2 AWG</t>
   </si>
   <si>
     <t>Accumulator Main Plug</t>
   </si>
   <si>
-    <t>25-50 mm^2</t>
-  </si>
-  <si>
     <t>35mm^2</t>
   </si>
   <si>
@@ -258,21 +222,9 @@
     <t>630A</t>
   </si>
   <si>
-    <t>1KV</t>
-  </si>
-  <si>
-    <t>Accumulator Aux Receptacle (TSMP &amp; Energy Meter lines)</t>
-  </si>
-  <si>
-    <t>30-14 AWG</t>
-  </si>
-  <si>
     <t>18 AWG</t>
   </si>
   <si>
-    <t>Accumulator Aux Plug (TSMP &amp; Energy Meter lines)</t>
-  </si>
-  <si>
     <t>Total Number of AIR’s:</t>
   </si>
   <si>
@@ -426,24 +378,9 @@
     <t>Voltage Rating:</t>
   </si>
   <si>
-    <t>TE Connectivity/HSA2515KE</t>
-  </si>
-  <si>
     <t>Resistance:</t>
   </si>
   <si>
-    <t>15,000Ω</t>
-  </si>
-  <si>
-    <t>400V</t>
-  </si>
-  <si>
-    <t>Power Rating:</t>
-  </si>
-  <si>
-    <t>12.5W</t>
-  </si>
-  <si>
     <t>TE AMP+ Manual Service Disconnect</t>
   </si>
   <si>
@@ -471,30 +408,15 @@
     <t>85 dBA</t>
   </si>
   <si>
-    <t>TE Connectivity / HSC1003K9J</t>
-  </si>
-  <si>
-    <t>3.9kΩ</t>
-  </si>
-  <si>
     <t>Voltage:</t>
   </si>
   <si>
-    <t>469V</t>
-  </si>
-  <si>
     <t>Power:</t>
   </si>
   <si>
-    <t>50W</t>
-  </si>
-  <si>
     <t>Power @15sec:</t>
   </si>
   <si>
-    <t>2.65E-12 W</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gigavac PNC113BDA </t>
   </si>
   <si>
@@ -618,12 +540,6 @@
     <t>0W</t>
   </si>
   <si>
-    <t>Omron / G7L-2A-X-L DC12</t>
-  </si>
-  <si>
-    <t>1000VDC</t>
-  </si>
-  <si>
     <t>Molex / 430202000</t>
   </si>
   <si>
@@ -751,6 +667,291 @@
   </si>
   <si>
     <t>Driver Side (as per rules)</t>
+  </si>
+  <si>
+    <t>PCB Material</t>
+  </si>
+  <si>
+    <t>FR4</t>
+  </si>
+  <si>
+    <t>HV Trace Spacing</t>
+  </si>
+  <si>
+    <t>1.5mm minimum</t>
+  </si>
+  <si>
+    <t>PCB Coating</t>
+  </si>
+  <si>
+    <t>MG Chemical 4223-312G</t>
+  </si>
+  <si>
+    <t>LV Trace Spacing</t>
+  </si>
+  <si>
+    <t>0.2mm minimum</t>
+  </si>
+  <si>
+    <t>HV Trace Width</t>
+  </si>
+  <si>
+    <t>HV Trace Ampacity</t>
+  </si>
+  <si>
+    <t>1.27mm minimum</t>
+  </si>
+  <si>
+    <t>LV Trace Width</t>
+  </si>
+  <si>
+    <t>LV Trace Ampacity</t>
+  </si>
+  <si>
+    <t>4.02A minimum</t>
+  </si>
+  <si>
+    <t>Copper Weight</t>
+  </si>
+  <si>
+    <t>2 oz</t>
+  </si>
+  <si>
+    <t>0.65A minimum</t>
+  </si>
+  <si>
+    <t>Main board - Daughter board connector</t>
+  </si>
+  <si>
+    <t>Molex 15-24-7100 (Main board side)</t>
+  </si>
+  <si>
+    <t>Molex 15-24-6100 (Daughter board side)</t>
+  </si>
+  <si>
+    <t>Main board - Cable connector</t>
+  </si>
+  <si>
+    <t>Molex 5566-4 (HV)</t>
+  </si>
+  <si>
+    <t>Molex 5566-10, 5566-24 (LV)</t>
+  </si>
+  <si>
+    <t>DMZ Spacing</t>
+  </si>
+  <si>
+    <t>4mm minimum</t>
+  </si>
+  <si>
+    <t>Accumulator Aux Receptacle</t>
+  </si>
+  <si>
+    <t>Accumulator Aux Plug</t>
+  </si>
+  <si>
+    <t>Connector</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Wire Gauge</t>
+  </si>
+  <si>
+    <t>Conductor</t>
+  </si>
+  <si>
+    <t>Fuse</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Manufactured</t>
+  </si>
+  <si>
+    <t>DC and Phase Wire</t>
+  </si>
+  <si>
+    <t>Tractive System</t>
+  </si>
+  <si>
+    <t>AIR</t>
+  </si>
+  <si>
+    <t>Accumulator Isolation Relay</t>
+  </si>
+  <si>
+    <t>AMS</t>
+  </si>
+  <si>
+    <t>Accumulator Monitoring System</t>
+  </si>
+  <si>
+    <t>BMS</t>
+  </si>
+  <si>
+    <t>Battery Monitoring System</t>
+  </si>
+  <si>
+    <t>BOTS</t>
+  </si>
+  <si>
+    <t>Brake Over Travel Switch</t>
+  </si>
+  <si>
+    <t>BSPD</t>
+  </si>
+  <si>
+    <t>Brake System Plausability Device</t>
+  </si>
+  <si>
+    <t>DMZ</t>
+  </si>
+  <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>Expanded Term</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>Demilitarized Zone</t>
+  </si>
+  <si>
+    <t>Spacing between HV and LV on Printed Circuit Boards</t>
+  </si>
+  <si>
+    <t>GLV, LV</t>
+  </si>
+  <si>
+    <t>Grounded Low Voltage</t>
+  </si>
+  <si>
+    <t>GLVMP</t>
+  </si>
+  <si>
+    <t>Grounded Low Voltage Measurement Point</t>
+  </si>
+  <si>
+    <t>HV</t>
+  </si>
+  <si>
+    <t>High Voltage</t>
+  </si>
+  <si>
+    <t>IMD</t>
+  </si>
+  <si>
+    <t>Insulation Monitoring Device</t>
+  </si>
+  <si>
+    <t>TSAL</t>
+  </si>
+  <si>
+    <t>Tractive System Active Light</t>
+  </si>
+  <si>
+    <t>TSMP</t>
+  </si>
+  <si>
+    <t>Tractive System Measurement Point</t>
+  </si>
+  <si>
+    <t>HVIB</t>
+  </si>
+  <si>
+    <t>High Voltage Interlock Board</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>Maintenance Plug</t>
+  </si>
+  <si>
+    <t>Resistance</t>
+  </si>
+  <si>
+    <t>1.5K</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Power Dissipation / Power Rating</t>
+  </si>
+  <si>
+    <t>1.067W / 2W</t>
+  </si>
+  <si>
+    <t>Configuration / Total Resistance</t>
+  </si>
+  <si>
+    <t>Series / 15K</t>
+  </si>
+  <si>
+    <t>Maximum Overload Voltage</t>
+  </si>
+  <si>
+    <t>Bourns / CRM2512-JW-152ELF</t>
+  </si>
+  <si>
+    <t>Gigavac / G81C235</t>
+  </si>
+  <si>
+    <t>5A</t>
+  </si>
+  <si>
+    <t>10 kVDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2 kOhm </t>
+  </si>
+  <si>
+    <t>Rideon / PF2473</t>
+  </si>
+  <si>
+    <t>140W</t>
+  </si>
+  <si>
+    <t>Ohmite / RA-T2X-25E</t>
+  </si>
+  <si>
+    <t>Thermal Resistance Free Air</t>
+  </si>
+  <si>
+    <t>4.8 degC/W</t>
+  </si>
+  <si>
+    <t>Thermal Resistance @ 200 LFM</t>
+  </si>
+  <si>
+    <t>1.5 degC/W</t>
+  </si>
+  <si>
+    <t>250A</t>
+  </si>
+  <si>
+    <t>150A</t>
+  </si>
+  <si>
+    <t>V Rating</t>
+  </si>
+  <si>
+    <t>HVIL</t>
   </si>
 </sst>
 </file>
@@ -774,7 +975,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -797,11 +998,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -812,6 +1039,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1128,18 +1369,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3FB8ED-F3C4-4044-9D14-005DD361574D}">
-  <dimension ref="D7:CO17"/>
+  <dimension ref="D6:CO49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BT1" workbookViewId="0">
-      <selection activeCell="CN7" sqref="CN7:CO13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6:Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.42578125" customWidth="1"/>
     <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="43" max="43" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="6" spans="4:93" x14ac:dyDescent="0.25">
+      <c r="M6" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="7" spans="4:93" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -1147,179 +1431,167 @@
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="M7" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="S7" s="6"/>
       <c r="U7" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>38</v>
+        <v>303</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD7" s="3">
+        <v>23</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC7" s="3">
         <v>2</v>
       </c>
+      <c r="AE7" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="AF7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH7" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AG7" s="3" t="s">
+      <c r="AI7" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AI7" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ7" s="3" t="s">
-        <v>104</v>
+      <c r="AK7" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="AL7" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AM7" s="3" t="s">
-        <v>111</v>
+        <v>95</v>
+      </c>
+      <c r="AN7" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="AO7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR7" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="AS7" s="11"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AX7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY7" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AP7" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AR7" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AS7" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU7" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AV7" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AX7" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AY7" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="BA7" s="3" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="BB7" s="3" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="BD7" s="3" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="BE7" s="3" t="s">
-        <v>146</v>
+        <v>296</v>
       </c>
       <c r="BG7" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="BH7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BJ7" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="BK7" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="BM7" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="BJ7" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="BK7" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="BM7" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="BN7" s="3">
         <v>5</v>
       </c>
       <c r="BP7" s="3" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="BQ7" s="3" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="BS7" s="3" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="BT7" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="BV7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BW7" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="BY7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BZ7" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="CB7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="CC7" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="CE7" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="CF7" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="CH7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="CI7" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="CK7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL7" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="BV7" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BW7" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="BY7" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BZ7" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="CB7" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="CC7" s="3" t="s">
+      <c r="CN7" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="CE7" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="CF7" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="CH7" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="CI7" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="CK7" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="CL7" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="CN7" s="3" t="s">
-        <v>228</v>
-      </c>
       <c r="CO7" s="3" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="4:93" x14ac:dyDescent="0.25">
@@ -1344,179 +1616,173 @@
       <c r="K8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="Q8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P8" s="3" t="s">
+      <c r="R8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="W8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="V8" s="3" t="s">
+      <c r="X8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="AC8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC8" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD8" s="3" t="s">
-        <v>82</v>
+      <c r="AE8" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="AF8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH8" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AG8" s="3" t="s">
+      <c r="AI8" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AI8" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AJ8" s="3" t="s">
-        <v>106</v>
+      <c r="AK8" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="AL8" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AM8" s="3" t="s">
-        <v>113</v>
+        <v>97</v>
+      </c>
+      <c r="AN8" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="AO8" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AP8" s="3" t="s">
-        <v>119</v>
+        <v>103</v>
+      </c>
+      <c r="AQ8" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="AR8" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AS8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AU8" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AV8" s="3" t="s">
-        <v>133</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="AS8" s="11"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
       <c r="AX8" s="3" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="AY8" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="BA8" s="3" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="BB8" s="3" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="BD8" s="3" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="BE8" s="3" t="s">
-        <v>147</v>
+        <v>295</v>
       </c>
       <c r="BG8" s="1" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="BH8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="BJ8" s="3" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="BK8" s="3" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="BM8" s="3" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="BN8" s="3" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="BP8" s="3" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="BQ8" s="3" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="BS8" s="3" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="BT8" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="BV8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="BW8" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="BY8" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="BZ8" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="CB8" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="CC8" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="CE8" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="CF8" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="CH8" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="CI8" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="CK8" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="CL8" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="BV8" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="BW8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="BY8" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="BZ8" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="CB8" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="CC8" s="3" t="s">
+      <c r="CN8" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="CE8" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="CF8" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="CH8" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="CI8" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="CK8" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="CL8" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="CN8" s="3" t="s">
-        <v>230</v>
-      </c>
       <c r="CO8" s="3" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="4:93" x14ac:dyDescent="0.25">
@@ -1541,179 +1807,161 @@
       <c r="K9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N9" s="3" t="s">
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ9" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="AR9" s="3">
+        <v>10</v>
+      </c>
+      <c r="AS9" s="11"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3"/>
+      <c r="AX9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AY9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="BA9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="BB9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BD9" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE9" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="BG9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BH9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BJ9" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="BK9" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="BM9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="BN9" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="BP9" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BQ9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC9" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD9" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF9" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG9" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI9" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ9" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AL9" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AM9" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AO9" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AP9" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AR9" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AS9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AU9" s="3" t="s">
+      <c r="BS9" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT9" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="BV9" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="AV9" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AX9" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AY9" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="BA9" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="BB9" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="BD9" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="BE9" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="BG9" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="BH9" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BJ9" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="BK9" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="BM9" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="BN9" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="BP9" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="BQ9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="BS9" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="BT9" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="BV9" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="BW9" s="3" t="s">
-        <v>196</v>
+        <v>294</v>
       </c>
       <c r="BY9" s="3" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="BZ9" s="3" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="CB9" s="3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="CC9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="CE9" s="3" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="CF9" s="3" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="CH9" s="3" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="CI9" s="3" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="CK9" s="3" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="CL9" s="3" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="CN9" s="3" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="CO9" s="3" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="4:93" x14ac:dyDescent="0.25">
@@ -1738,167 +1986,167 @@
       <c r="K10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="V10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="W10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="S10" s="3" t="s">
+      <c r="X10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD10" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF10" s="3" t="s">
+      <c r="AN10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AQ10" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR10" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS10" s="9"/>
+      <c r="AU10" s="3"/>
+      <c r="AV10" s="3"/>
+      <c r="AX10" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="AG10" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI10" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AO10" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AP10" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AU10" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AV10" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="AX10" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="AY10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="BA10" s="3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="BB10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="BD10" s="3" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="BE10" s="3" t="s">
-        <v>151</v>
+        <v>297</v>
       </c>
       <c r="BG10" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="BH10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="BJ10" s="3" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="BK10" s="3" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="BM10" s="3" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="BN10" s="3" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="BP10" s="3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="BQ10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="BS10" s="3" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="BT10" s="3" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="BV10" s="3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="BW10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="BY10" s="3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="BZ10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="CB10" s="3" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="CC10" s="3">
         <v>40</v>
       </c>
       <c r="CE10" s="3" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="CF10" s="3" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="CH10" s="3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="CI10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="CK10" s="3" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="CL10" s="3" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="CN10" s="3" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="CO10" s="3" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="4:93" x14ac:dyDescent="0.25">
@@ -1923,103 +2171,91 @@
       <c r="K11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" s="3" t="s">
+      <c r="M11" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="U11" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="Q11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="Y11" s="3" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA11" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="AE11" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="AF11" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AG11" s="3" t="s">
-        <v>96</v>
+        <v>80</v>
+      </c>
+      <c r="AN11" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="AO11" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AP11" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="AU11" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AV11" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="AQ11" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="AR11" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="AS11" s="9"/>
+      <c r="AU11" s="3"/>
+      <c r="AV11" s="3"/>
       <c r="BD11" s="3" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="BE11" s="3" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="BJ11" s="3" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="BK11" s="3" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="BM11" s="3"/>
       <c r="BN11" s="3" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="BS11" s="3" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="BT11" s="3" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="CB11" s="3" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="CC11" s="5">
         <v>0.42</v>
       </c>
       <c r="CK11" s="3" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="CL11" s="3" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="CN11" s="3"/>
       <c r="CO11" s="3" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="4:93" x14ac:dyDescent="0.25">
@@ -2044,39 +2280,46 @@
       <c r="K12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z12" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA12" s="3" t="s">
-        <v>23</v>
+      <c r="M12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG12" s="3" t="s">
-        <v>98</v>
+        <v>82</v>
+      </c>
+      <c r="AN12" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="AO12" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="AP12" s="3" t="s">
-        <v>127</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="AQ12" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="AR12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS12" s="9"/>
       <c r="BD12" s="3" t="s">
         <v>18</v>
       </c>
@@ -2084,10 +2327,10 @@
         <v>18</v>
       </c>
       <c r="BJ12" s="3" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="BK12" s="3" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="BS12" s="3" t="s">
         <v>18</v>
@@ -2096,14 +2339,14 @@
         <v>18</v>
       </c>
       <c r="CK12" s="3" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="CL12" s="3" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="CN12" s="3"/>
       <c r="CO12" s="3" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="4:93" x14ac:dyDescent="0.25">
@@ -2128,35 +2371,74 @@
       <c r="K13" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="M13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AE13" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="AF13" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG13" s="3" t="s">
-        <v>100</v>
+        <v>84</v>
+      </c>
+      <c r="AN13" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="AO13" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP13" s="3" t="s">
-        <v>127</v>
+        <v>111</v>
+      </c>
+      <c r="AQ13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AV13" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="BJ13" s="3" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="BK13" s="3" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="CK13" s="3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="CL13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="CN13" s="3" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="CO13" s="3" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="4:93" x14ac:dyDescent="0.25">
@@ -2181,48 +2463,342 @@
       <c r="K14" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="AE14" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="AF14" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG14" s="3" t="s">
-        <v>102</v>
+        <v>86</v>
+      </c>
+      <c r="AU14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BD14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE14" s="3" t="s">
+        <v>298</v>
       </c>
       <c r="BJ14" s="3" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="BK14" s="3" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="4:93" x14ac:dyDescent="0.25">
+      <c r="AE15" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="AF15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AG15" s="3" t="s">
+      <c r="AU15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV15" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="BD15" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="BE15" s="3" t="s">
+        <v>300</v>
+      </c>
       <c r="BJ15" s="3" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="BK15" s="3" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="4:93" x14ac:dyDescent="0.25">
+      <c r="BD16" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="BE16" s="3" t="s">
+        <v>302</v>
+      </c>
       <c r="BJ16" s="3" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="BK16" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="62:63" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="4:63" x14ac:dyDescent="0.25">
+      <c r="BD17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="BE17" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="BJ17" s="3" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="BK17" s="3" t="s">
-        <v>179</v>
-      </c>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="4:63" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="BD18" s="3"/>
+      <c r="BE18" s="3"/>
+    </row>
+    <row r="19" spans="4:63" x14ac:dyDescent="0.25">
+      <c r="D19" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="4:63" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="4:63" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="4:63" x14ac:dyDescent="0.25">
+      <c r="D22" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="4:63" x14ac:dyDescent="0.25">
+      <c r="D23" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="4:63" x14ac:dyDescent="0.25">
+      <c r="D24" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="4:63" x14ac:dyDescent="0.25">
+      <c r="D25" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26" spans="4:63" x14ac:dyDescent="0.25">
+      <c r="D26" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27" spans="4:63" x14ac:dyDescent="0.25">
+      <c r="D27" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="4:63" x14ac:dyDescent="0.25">
+      <c r="D28" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29" spans="4:63" x14ac:dyDescent="0.25">
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="4:63" x14ac:dyDescent="0.25">
+      <c r="D30" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" spans="4:63" x14ac:dyDescent="0.25">
+      <c r="D31" s="6"/>
+      <c r="E31" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D34" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D35" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D36" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D37" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D38" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D39" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D40" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D41" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D42" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D43" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D44" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D45" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D46" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D47" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D48" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D49" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F49" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
